--- a/BoMs/2025 March Order.xlsx
+++ b/BoMs/2025 March Order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Navigator\BoMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\DMH-Navigator\BoMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{853CED52-2F02-42B9-9B6C-95E09EC65345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F11B49-FF37-4795-82B3-CD37F75288A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{004A2F2D-A702-44F6-9609-5F0D31EAE440}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{004A2F2D-A702-44F6-9609-5F0D31EAE440}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw list" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,24 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Merged list'!$A$1:$E$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pivot!$A$3:$D$104</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -648,12 +659,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -678,7 +695,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1691,7 +1708,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CEB8328-B0B0-4A67-9AD0-ACA9D8160772}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CEB8328-B0B0-4A67-9AD0-ACA9D8160772}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B104" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField showAll="0"/>
@@ -2125,9 +2142,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2165,7 +2182,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2271,7 +2288,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2413,7 +2430,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2427,15 +2444,15 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
@@ -2452,7 +2469,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -2469,7 +2486,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>0</v>
       </c>
@@ -2554,7 +2571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2622,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2741,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2758,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2809,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>0</v>
       </c>
@@ -2806,7 +2823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>80</v>
       </c>
@@ -2823,7 +2840,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>80</v>
       </c>
@@ -2840,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>80</v>
       </c>
@@ -2857,7 +2874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>80</v>
       </c>
@@ -2874,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>80</v>
       </c>
@@ -2891,7 +2908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>80</v>
       </c>
@@ -2908,7 +2925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>80</v>
       </c>
@@ -2925,7 +2942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>80</v>
       </c>
@@ -2942,7 +2959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>80</v>
       </c>
@@ -2959,7 +2976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>80</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>80</v>
       </c>
@@ -2993,7 +3010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>80</v>
       </c>
@@ -3010,7 +3027,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>80</v>
       </c>
@@ -3027,7 +3044,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>80</v>
       </c>
@@ -3044,7 +3061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>80</v>
       </c>
@@ -3061,7 +3078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>80</v>
       </c>
@@ -3078,7 +3095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>80</v>
       </c>
@@ -3095,7 +3112,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>80</v>
       </c>
@@ -3112,7 +3129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>80</v>
       </c>
@@ -3129,7 +3146,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>80</v>
       </c>
@@ -3146,7 +3163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>80</v>
       </c>
@@ -3163,7 +3180,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>80</v>
       </c>
@@ -3180,7 +3197,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>93</v>
       </c>
@@ -3197,7 +3214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>93</v>
       </c>
@@ -3214,7 +3231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>93</v>
       </c>
@@ -3231,7 +3248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>93</v>
       </c>
@@ -3248,7 +3265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>93</v>
       </c>
@@ -3265,7 +3282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>93</v>
       </c>
@@ -3282,7 +3299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E52" t="s">
         <v>93</v>
       </c>
@@ -3299,7 +3316,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E53" t="s">
         <v>93</v>
       </c>
@@ -3316,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E54" t="s">
         <v>93</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E55" t="s">
         <v>93</v>
       </c>
@@ -3350,7 +3367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E56" t="s">
         <v>93</v>
       </c>
@@ -3367,7 +3384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E57" t="s">
         <v>93</v>
       </c>
@@ -3384,7 +3401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E58" t="s">
         <v>93</v>
       </c>
@@ -3401,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E59" t="s">
         <v>93</v>
       </c>
@@ -3418,7 +3435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E60" t="s">
         <v>93</v>
       </c>
@@ -3435,7 +3452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E61" t="s">
         <v>94</v>
       </c>
@@ -3452,7 +3469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E62" t="s">
         <v>94</v>
       </c>
@@ -3469,7 +3486,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E63" t="s">
         <v>94</v>
       </c>
@@ -3486,7 +3503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E64" t="s">
         <v>94</v>
       </c>
@@ -3503,7 +3520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E65" t="s">
         <v>94</v>
       </c>
@@ -3520,7 +3537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E66" t="s">
         <v>94</v>
       </c>
@@ -3537,7 +3554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E67" t="s">
         <v>94</v>
       </c>
@@ -3554,7 +3571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E68" t="s">
         <v>94</v>
       </c>
@@ -3571,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E69" t="s">
         <v>94</v>
       </c>
@@ -3588,7 +3605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E70" t="s">
         <v>94</v>
       </c>
@@ -3605,7 +3622,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E71" t="s">
         <v>94</v>
       </c>
@@ -3622,7 +3639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E72" t="s">
         <v>94</v>
       </c>
@@ -3639,7 +3656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E73" t="s">
         <v>94</v>
       </c>
@@ -3656,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E74" t="s">
         <v>94</v>
       </c>
@@ -3673,7 +3690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E75" t="s">
         <v>172</v>
       </c>
@@ -3690,7 +3707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E76" t="s">
         <v>172</v>
       </c>
@@ -3707,7 +3724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E77" t="s">
         <v>172</v>
       </c>
@@ -3724,7 +3741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E78" t="s">
         <v>172</v>
       </c>
@@ -3741,7 +3758,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E79" t="s">
         <v>172</v>
       </c>
@@ -3758,7 +3775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E80" t="s">
         <v>172</v>
       </c>
@@ -3775,7 +3792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E81" t="s">
         <v>172</v>
       </c>
@@ -3792,7 +3809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E82" t="s">
         <v>172</v>
       </c>
@@ -3809,7 +3826,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E83" t="s">
         <v>172</v>
       </c>
@@ -3826,7 +3843,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E84" t="s">
         <v>172</v>
       </c>
@@ -3843,7 +3860,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E85" t="s">
         <v>172</v>
       </c>
@@ -3860,7 +3877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E86" t="s">
         <v>172</v>
       </c>
@@ -3877,7 +3894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E87" t="s">
         <v>172</v>
       </c>
@@ -3894,7 +3911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E88" t="s">
         <v>172</v>
       </c>
@@ -3911,7 +3928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E89" t="s">
         <v>172</v>
       </c>
@@ -3928,7 +3945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E90" t="s">
         <v>172</v>
       </c>
@@ -3945,7 +3962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E91" t="s">
         <v>172</v>
       </c>
@@ -3962,7 +3979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E92" t="s">
         <v>172</v>
       </c>
@@ -3979,7 +3996,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E93" t="s">
         <v>172</v>
       </c>
@@ -3996,7 +4013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E94" t="s">
         <v>172</v>
       </c>
@@ -4013,7 +4030,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E95" t="s">
         <v>172</v>
       </c>
@@ -4030,7 +4047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E96" t="s">
         <v>172</v>
       </c>
@@ -4047,7 +4064,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E97" t="s">
         <v>172</v>
       </c>
@@ -4064,7 +4081,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E98" t="s">
         <v>172</v>
       </c>
@@ -4081,7 +4098,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E99" t="s">
         <v>172</v>
       </c>
@@ -4098,7 +4115,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E100" t="s">
         <v>172</v>
       </c>
@@ -4115,7 +4132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E101" t="s">
         <v>172</v>
       </c>
@@ -4132,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E102" t="s">
         <v>172</v>
       </c>
@@ -4149,7 +4166,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
         <v>172</v>
       </c>
@@ -4166,7 +4183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>172</v>
       </c>
@@ -4183,7 +4200,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>172</v>
       </c>
@@ -4200,7 +4217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>172</v>
       </c>
@@ -4217,7 +4234,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E107" t="s">
         <v>172</v>
       </c>
@@ -4234,7 +4251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E108" t="s">
         <v>172</v>
       </c>
@@ -4251,7 +4268,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E109" t="s">
         <v>172</v>
       </c>
@@ -4268,7 +4285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E110" t="s">
         <v>172</v>
       </c>
@@ -4285,7 +4302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
         <v>172</v>
       </c>
@@ -4302,7 +4319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E112" t="s">
         <v>172</v>
       </c>
@@ -4316,7 +4333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E113" t="s">
         <v>172</v>
       </c>
@@ -4333,7 +4350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E114" t="s">
         <v>172</v>
       </c>
@@ -4350,7 +4367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E115" t="s">
         <v>172</v>
       </c>
@@ -4367,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E116" t="s">
         <v>172</v>
       </c>
@@ -4384,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E117" t="s">
         <v>172</v>
       </c>
@@ -4416,15 +4433,15 @@
       <selection pane="bottomLeft" activeCell="D116" sqref="D116:D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -4441,7 +4458,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4458,7 +4475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4594,7 +4611,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4611,7 +4628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4645,7 +4662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4730,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4781,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +4798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4799,7 +4816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4817,7 +4834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -4834,7 +4851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -4851,7 +4868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -4868,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -4885,7 +4902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -4902,7 +4919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -4919,7 +4936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -4936,7 +4953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -4953,7 +4970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -4970,7 +4987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -4987,7 +5004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -5004,7 +5021,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -5021,7 +5038,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -5038,7 +5055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -5055,7 +5072,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -5072,7 +5089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -5089,7 +5106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5106,7 +5123,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -5123,7 +5140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -5140,7 +5157,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -5157,7 +5174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -5174,7 +5191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -5191,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -5209,7 +5226,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5226,7 +5243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -5243,7 +5260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -5260,7 +5277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -5277,7 +5294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -5294,7 +5311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -5311,7 +5328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -5328,7 +5345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -5345,7 +5362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -5362,7 +5379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5379,7 +5396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -5396,7 +5413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -5413,7 +5430,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -5430,7 +5447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -5447,7 +5464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -5465,7 +5482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -5482,7 +5499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -5499,7 +5516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -5516,7 +5533,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -5533,7 +5550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -5550,7 +5567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -5567,7 +5584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -5584,7 +5601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -5601,7 +5618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -5618,7 +5635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -5635,7 +5652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -5652,7 +5669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -5669,7 +5686,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -5686,7 +5703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -5703,7 +5720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -5720,7 +5737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -5737,7 +5754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -5754,7 +5771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -5771,7 +5788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -5788,7 +5805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -5805,7 +5822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -5822,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -5839,7 +5856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -5856,7 +5873,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -5873,7 +5890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -5890,7 +5907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -5907,7 +5924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -5924,7 +5941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -5941,7 +5958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5958,7 +5975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -5975,7 +5992,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>172</v>
       </c>
@@ -5992,7 +6009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>172</v>
       </c>
@@ -6009,7 +6026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -6026,7 +6043,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -6043,7 +6060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>172</v>
       </c>
@@ -6060,7 +6077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>172</v>
       </c>
@@ -6077,7 +6094,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -6094,7 +6111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>172</v>
       </c>
@@ -6111,7 +6128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -6128,7 +6145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -6145,7 +6162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -6162,7 +6179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -6179,7 +6196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -6196,7 +6213,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -6213,7 +6230,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>172</v>
       </c>
@@ -6230,7 +6247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>172</v>
       </c>
@@ -6247,7 +6264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>172</v>
       </c>
@@ -6264,7 +6281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>172</v>
       </c>
@@ -6281,7 +6298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -6298,7 +6315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -6315,7 +6332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -6332,7 +6349,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>172</v>
       </c>
@@ -6349,7 +6366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>172</v>
       </c>
@@ -6366,7 +6383,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>172</v>
       </c>
@@ -6383,7 +6400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>172</v>
       </c>
@@ -6400,7 +6417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -6417,7 +6434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>172</v>
       </c>
@@ -6434,7 +6451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -6452,7 +6469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>172</v>
       </c>
@@ -6470,7 +6487,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>172</v>
       </c>
@@ -6488,7 +6505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>172</v>
       </c>
@@ -6506,7 +6523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
         <v>190</v>
       </c>
@@ -6521,7 +6538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
         <v>190</v>
       </c>
@@ -6547,18 +6564,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A3:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A103" sqref="A103"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="C18" activeCellId="1" sqref="C11 C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>173</v>
       </c>
@@ -6569,1003 +6586,1001 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5">
         <v>38</v>
       </c>
       <c r="C5" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7">
         <v>4</v>
       </c>
       <c r="C7" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9">
         <v>10</v>
       </c>
       <c r="C9" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11">
         <v>1</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18">
         <v>5</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20">
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22">
         <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B23">
         <v>4</v>
       </c>
       <c r="C23" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25">
         <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26">
         <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="5">
+      <c r="B28">
         <v>1</v>
       </c>
       <c r="C28" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29">
         <v>2</v>
       </c>
       <c r="C29" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B30" s="5">
+      <c r="B30">
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="5">
+      <c r="B31">
         <v>15</v>
       </c>
       <c r="C31" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B32" s="5">
+      <c r="B32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33">
         <v>1</v>
       </c>
       <c r="C33" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="5">
+      <c r="B34">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B35" s="5">
+      <c r="B35">
         <v>18</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D35">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B36" s="5">
+      <c r="B36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="5">
+      <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="5">
+      <c r="B38">
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="5">
+      <c r="B39">
         <v>11</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>189</v>
       </c>
       <c r="D39">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B40">
         <v>19</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>188</v>
       </c>
       <c r="D40">
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="5">
+      <c r="B41">
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="5">
+      <c r="B42">
         <v>27</v>
       </c>
       <c r="C42" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="5">
+      <c r="B43">
         <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="5">
+      <c r="B44">
         <v>9</v>
       </c>
       <c r="C44" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="5">
+      <c r="B45">
         <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="5">
+      <c r="B46">
         <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47">
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B48" s="5">
+      <c r="B48">
         <v>56</v>
       </c>
       <c r="C48" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49">
         <v>12</v>
       </c>
       <c r="C49" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="5">
+      <c r="B50">
         <v>24</v>
       </c>
       <c r="C50" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="5">
+      <c r="B51">
         <v>2</v>
       </c>
       <c r="C51" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B52" s="5">
+      <c r="B52">
         <v>2</v>
       </c>
       <c r="C52" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B53" s="5">
+      <c r="B53">
         <v>14</v>
       </c>
       <c r="C53" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B54" s="5">
+      <c r="B54">
         <v>19</v>
       </c>
       <c r="C54" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B55" s="5">
+      <c r="B55">
         <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="B56" s="5">
+      <c r="B56">
         <v>2</v>
       </c>
       <c r="C56" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B57" s="5">
+      <c r="B57">
         <v>4</v>
       </c>
       <c r="C57" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="B58" s="5">
+      <c r="B58">
         <v>4</v>
       </c>
       <c r="C58" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B59" s="5">
+      <c r="B59">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="5">
+      <c r="B60">
         <v>35</v>
       </c>
       <c r="C60" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B61" s="5">
+      <c r="B61">
         <v>3</v>
       </c>
       <c r="C61" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B62" s="5">
+      <c r="B62">
         <v>4</v>
       </c>
       <c r="C62" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B63" s="5">
+      <c r="B63">
         <v>3</v>
       </c>
       <c r="C63" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B64" s="5">
+      <c r="B64">
         <v>2</v>
       </c>
       <c r="C64" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="B65" s="5">
+      <c r="B65">
         <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B66" s="5">
+      <c r="B66">
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B67" s="5">
+      <c r="B67">
         <v>47</v>
       </c>
-      <c r="C67" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="5">
+      <c r="B68">
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B69" s="5">
+      <c r="B69">
         <v>2</v>
       </c>
       <c r="C69" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B70" s="5">
+      <c r="B70">
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B71" s="5">
+      <c r="B71">
         <v>4</v>
       </c>
       <c r="C71" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B72" s="5">
+      <c r="B72">
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B73" s="5">
+      <c r="B73">
         <v>4</v>
       </c>
       <c r="C73" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="B74" s="5">
+      <c r="B74">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B75" s="5">
+      <c r="B75">
         <v>1</v>
       </c>
       <c r="C75" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="5">
+      <c r="B76">
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B77" s="5">
+      <c r="B77">
         <v>3</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B78" s="5">
+      <c r="B78">
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B79" s="5">
+      <c r="B79">
         <v>11</v>
       </c>
       <c r="C79" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B80" s="5">
+      <c r="B80">
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B81" s="5">
+      <c r="B81">
         <v>17</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="5">
+      <c r="B82">
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B83" s="5">
+      <c r="B83">
         <v>1</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="B84" s="5">
+      <c r="B84">
         <v>1</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B85" s="5">
+      <c r="B85">
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B86" s="5">
+      <c r="B86">
         <v>3</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B87" s="5">
+      <c r="B87">
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B88" s="5">
+      <c r="B88">
         <v>6</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="B89" s="5">
+      <c r="B89">
         <v>2</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="B90" s="5"/>
-    </row>
-    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B91" s="5"/>
-    </row>
-    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="B92" s="5">
+      <c r="B92">
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B93" s="5">
+      <c r="B93">
         <v>12</v>
       </c>
       <c r="C93" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B94" s="5">
+      <c r="B94">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="B95" s="5">
+      <c r="B95">
         <v>12</v>
       </c>
       <c r="C95" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="B96" s="5">
+      <c r="B96">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B97" s="5">
+      <c r="B97">
         <v>2</v>
       </c>
       <c r="C97" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="B98" s="5">
+      <c r="B98">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B99" s="5">
+      <c r="B99">
         <v>1</v>
       </c>
       <c r="C99" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="B100" s="5">
+      <c r="B100">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B101" s="5">
+      <c r="B101">
         <v>4</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="B102" s="5">
+      <c r="B102">
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B103" s="5">
+      <c r="B103">
         <v>4</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="5" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B104" s="5">
+      <c r="B104">
         <v>569</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A3:D104" xr:uid="{CC973916-2AE6-49A1-9243-59D209A00D63}">
     <filterColumn colId="2">
-      <filters>
+      <filters blank="1">
         <filter val="Buy"/>
         <filter val="OK, but buy"/>
       </filters>

--- a/BoMs/2025 March Order.xlsx
+++ b/BoMs/2025 March Order.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodrigo\Documents\GitHub\DMH-Navigator\BoMs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Navigator\BoMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96F11B49-FF37-4795-82B3-CD37F75288A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6DA7B6-9251-4F41-B37E-15E51BA17615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{004A2F2D-A702-44F6-9609-5F0D31EAE440}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{004A2F2D-A702-44F6-9609-5F0D31EAE440}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw list" sheetId="1" r:id="rId1"/>
@@ -18,10 +18,10 @@
     <sheet name="Pivot" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Merged list'!$A$1:$E$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Merged list'!$A$1:$E$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Pivot!$A$3:$D$104</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
@@ -29,17 +29,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -636,7 +625,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -658,8 +647,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -672,6 +668,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -682,10 +683,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -696,8 +698,10 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2142,9 +2146,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2182,7 +2186,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2288,7 +2292,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2430,7 +2434,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2444,15 +2448,15 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
@@ -2469,7 +2473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>0</v>
       </c>
@@ -2486,7 +2490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>0</v>
       </c>
@@ -2503,7 +2507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -2520,7 +2524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>0</v>
       </c>
@@ -2537,7 +2541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>0</v>
       </c>
@@ -2554,7 +2558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>0</v>
       </c>
@@ -2571,7 +2575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>0</v>
       </c>
@@ -2588,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>0</v>
       </c>
@@ -2622,7 +2626,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>0</v>
       </c>
@@ -2656,7 +2660,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>0</v>
       </c>
@@ -2673,7 +2677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2694,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>0</v>
       </c>
@@ -2724,7 +2728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>0</v>
       </c>
@@ -2741,7 +2745,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>0</v>
       </c>
@@ -2758,7 +2762,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>0</v>
       </c>
@@ -2775,7 +2779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>0</v>
       </c>
@@ -2792,7 +2796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>0</v>
       </c>
@@ -2809,7 +2813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>0</v>
       </c>
@@ -2823,7 +2827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>80</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>80</v>
       </c>
@@ -2857,7 +2861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>80</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>80</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>80</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>80</v>
       </c>
@@ -2925,7 +2929,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>80</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>80</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>80</v>
       </c>
@@ -2976,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>80</v>
       </c>
@@ -2993,7 +2997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>80</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>80</v>
       </c>
@@ -3027,7 +3031,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>80</v>
       </c>
@@ -3044,7 +3048,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>80</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>80</v>
       </c>
@@ -3078,7 +3082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>80</v>
       </c>
@@ -3095,7 +3099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>80</v>
       </c>
@@ -3112,7 +3116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>80</v>
       </c>
@@ -3129,7 +3133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>80</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>80</v>
       </c>
@@ -3163,7 +3167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>80</v>
       </c>
@@ -3180,7 +3184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>80</v>
       </c>
@@ -3197,7 +3201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>93</v>
       </c>
@@ -3214,7 +3218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>93</v>
       </c>
@@ -3231,7 +3235,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>93</v>
       </c>
@@ -3248,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>93</v>
       </c>
@@ -3265,7 +3269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>93</v>
       </c>
@@ -3282,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>93</v>
       </c>
@@ -3299,7 +3303,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
         <v>93</v>
       </c>
@@ -3316,7 +3320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
         <v>93</v>
       </c>
@@ -3333,7 +3337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
         <v>93</v>
       </c>
@@ -3350,7 +3354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
         <v>93</v>
       </c>
@@ -3367,7 +3371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E56" t="s">
         <v>93</v>
       </c>
@@ -3384,7 +3388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
         <v>93</v>
       </c>
@@ -3401,7 +3405,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
         <v>93</v>
       </c>
@@ -3418,7 +3422,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
         <v>93</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
         <v>93</v>
       </c>
@@ -3452,7 +3456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
         <v>94</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
         <v>94</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
         <v>94</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
         <v>94</v>
       </c>
@@ -3520,7 +3524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E65" t="s">
         <v>94</v>
       </c>
@@ -3537,7 +3541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E66" t="s">
         <v>94</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
         <v>94</v>
       </c>
@@ -3571,7 +3575,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
         <v>94</v>
       </c>
@@ -3588,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
         <v>94</v>
       </c>
@@ -3605,7 +3609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
         <v>94</v>
       </c>
@@ -3622,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
         <v>94</v>
       </c>
@@ -3639,7 +3643,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
         <v>94</v>
       </c>
@@ -3656,7 +3660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
         <v>94</v>
       </c>
@@ -3673,7 +3677,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E74" t="s">
         <v>94</v>
       </c>
@@ -3690,7 +3694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
         <v>172</v>
       </c>
@@ -3707,7 +3711,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
         <v>172</v>
       </c>
@@ -3724,7 +3728,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
         <v>172</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
         <v>172</v>
       </c>
@@ -3758,7 +3762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
         <v>172</v>
       </c>
@@ -3775,7 +3779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
         <v>172</v>
       </c>
@@ -3792,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
         <v>172</v>
       </c>
@@ -3809,7 +3813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
         <v>172</v>
       </c>
@@ -3826,7 +3830,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
         <v>172</v>
       </c>
@@ -3843,7 +3847,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
         <v>172</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="85" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
         <v>172</v>
       </c>
@@ -3877,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
         <v>172</v>
       </c>
@@ -3894,7 +3898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
         <v>172</v>
       </c>
@@ -3911,7 +3915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
         <v>172</v>
       </c>
@@ -3928,7 +3932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
         <v>172</v>
       </c>
@@ -3945,7 +3949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
         <v>172</v>
       </c>
@@ -3962,7 +3966,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
         <v>172</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E92" t="s">
         <v>172</v>
       </c>
@@ -3996,7 +4000,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
         <v>172</v>
       </c>
@@ -4013,7 +4017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="94" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
         <v>172</v>
       </c>
@@ -4030,7 +4034,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E95" t="s">
         <v>172</v>
       </c>
@@ -4047,7 +4051,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
         <v>172</v>
       </c>
@@ -4064,7 +4068,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E97" t="s">
         <v>172</v>
       </c>
@@ -4081,7 +4085,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E98" t="s">
         <v>172</v>
       </c>
@@ -4098,7 +4102,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
         <v>172</v>
       </c>
@@ -4115,7 +4119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E100" t="s">
         <v>172</v>
       </c>
@@ -4132,7 +4136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
         <v>172</v>
       </c>
@@ -4149,7 +4153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
         <v>172</v>
       </c>
@@ -4166,7 +4170,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
         <v>172</v>
       </c>
@@ -4183,7 +4187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
         <v>172</v>
       </c>
@@ -4200,7 +4204,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
         <v>172</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
         <v>172</v>
       </c>
@@ -4234,7 +4238,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
         <v>172</v>
       </c>
@@ -4251,7 +4255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
         <v>172</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E109" t="s">
         <v>172</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="110" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E110" t="s">
         <v>172</v>
       </c>
@@ -4302,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E111" t="s">
         <v>172</v>
       </c>
@@ -4319,7 +4323,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
         <v>172</v>
       </c>
@@ -4333,7 +4337,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
         <v>172</v>
       </c>
@@ -4350,7 +4354,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
         <v>172</v>
       </c>
@@ -4367,7 +4371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
         <v>172</v>
       </c>
@@ -4384,7 +4388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
         <v>172</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
         <v>172</v>
       </c>
@@ -4426,22 +4430,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{976F841D-3466-4246-9EE5-D610D84B918F}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116:D117"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.44140625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>55</v>
       </c>
@@ -4458,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4475,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -4492,7 +4497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -4509,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -4526,7 +4531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4543,7 +4548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4560,7 +4565,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -4577,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -4611,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -4628,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -4645,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -4662,7 +4667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -4679,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -4696,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -4713,7 +4718,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4730,7 +4735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4747,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4764,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4781,7 +4786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -4798,7 +4803,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4816,7 +4821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +4839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>80</v>
       </c>
@@ -4851,7 +4856,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -4868,7 +4873,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>80</v>
       </c>
@@ -4885,7 +4890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>80</v>
       </c>
@@ -4902,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -4919,7 +4924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -4936,7 +4941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -4953,7 +4958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>80</v>
       </c>
@@ -4987,7 +4992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>80</v>
       </c>
@@ -5004,7 +5009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -5021,7 +5026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>80</v>
       </c>
@@ -5038,7 +5043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>80</v>
       </c>
@@ -5055,7 +5060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -5072,7 +5077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -5089,7 +5094,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>80</v>
       </c>
@@ -5106,7 +5111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -5123,7 +5128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -5140,7 +5145,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -5157,7 +5162,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -5174,7 +5179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -5191,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -5208,7 +5213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -5226,7 +5231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -5243,7 +5248,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>93</v>
       </c>
@@ -5260,7 +5265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -5277,7 +5282,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>93</v>
       </c>
@@ -5294,7 +5299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>93</v>
       </c>
@@ -5311,7 +5316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>93</v>
       </c>
@@ -5328,7 +5333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>93</v>
       </c>
@@ -5345,7 +5350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -5362,7 +5367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>93</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>93</v>
       </c>
@@ -5396,7 +5401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>93</v>
       </c>
@@ -5413,7 +5418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -5430,7 +5435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -5447,7 +5452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>93</v>
       </c>
@@ -5464,7 +5469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>93</v>
       </c>
@@ -5482,7 +5487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>93</v>
       </c>
@@ -5499,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -5516,7 +5521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -5533,7 +5538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -5550,7 +5555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -5567,7 +5572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -5584,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -5601,7 +5606,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -5618,7 +5623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -5635,7 +5640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -5652,7 +5657,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -5669,7 +5674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -5686,7 +5691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>94</v>
       </c>
@@ -5703,7 +5708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>94</v>
       </c>
@@ -5720,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -5737,7 +5742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -5754,7 +5759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -5771,7 +5776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -5788,7 +5793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -5805,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -5822,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -5839,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -5856,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -5873,7 +5878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -5890,7 +5895,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>172</v>
       </c>
@@ -5907,7 +5912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>172</v>
       </c>
@@ -5924,7 +5929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>172</v>
       </c>
@@ -5941,7 +5946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -5958,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5975,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -5992,279 +5997,279 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>172</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="6">
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>172</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="6">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>172</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="6">
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>172</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>172</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>172</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>172</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>172</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>172</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>172</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>172</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="6">
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>172</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>172</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E105">
+      <c r="E105" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>172</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E106">
+      <c r="E106" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>172</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E107">
+      <c r="E107" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>172</v>
       </c>
@@ -6281,7 +6286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>172</v>
       </c>
@@ -6298,7 +6303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -6315,7 +6320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -6332,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -6349,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>172</v>
       </c>
@@ -6366,7 +6371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>172</v>
       </c>
@@ -6383,7 +6388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>172</v>
       </c>
@@ -6400,7 +6405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>172</v>
       </c>
@@ -6417,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -6434,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>172</v>
       </c>
@@ -6451,7 +6456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>172</v>
       </c>
@@ -6469,7 +6474,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>172</v>
       </c>
@@ -6487,7 +6492,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>172</v>
       </c>
@@ -6505,7 +6510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>172</v>
       </c>
@@ -6523,7 +6528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>190</v>
       </c>
@@ -6538,7 +6543,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>190</v>
       </c>
@@ -6554,7 +6559,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E118" xr:uid="{976F841D-3466-4246-9EE5-D610D84B918F}"/>
+  <autoFilter ref="A1:E124" xr:uid="{976F841D-3466-4246-9EE5-D610D84B918F}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="VCF"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6564,18 +6575,18 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A3:D104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="C18" activeCellId="1" sqref="C11 C18"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="69.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>173</v>
       </c>
@@ -6586,7 +6597,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
@@ -6594,7 +6605,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
@@ -6605,7 +6616,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>108</v>
       </c>
@@ -6616,7 +6627,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>106</v>
       </c>
@@ -6627,7 +6638,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
@@ -6635,7 +6646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -6646,7 +6657,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>123</v>
       </c>
@@ -6654,7 +6665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>122</v>
       </c>
@@ -6665,7 +6676,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>120</v>
       </c>
@@ -6673,7 +6684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>119</v>
       </c>
@@ -6681,7 +6692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>85</v>
       </c>
@@ -6689,7 +6700,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
@@ -6697,7 +6708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>117</v>
       </c>
@@ -6705,7 +6716,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>62</v>
       </c>
@@ -6713,7 +6724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>61</v>
       </c>
@@ -6724,7 +6735,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>21</v>
       </c>
@@ -6732,7 +6743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>20</v>
       </c>
@@ -6740,7 +6751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>83</v>
       </c>
@@ -6748,7 +6759,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>114</v>
       </c>
@@ -6759,7 +6770,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>82</v>
       </c>
@@ -6770,7 +6781,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>13</v>
       </c>
@@ -6778,7 +6789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>15</v>
       </c>
@@ -6789,7 +6800,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>12</v>
       </c>
@@ -6800,7 +6811,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>110</v>
       </c>
@@ -6808,7 +6819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
         <v>109</v>
       </c>
@@ -6819,7 +6830,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>112</v>
       </c>
@@ -6830,7 +6841,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>53</v>
       </c>
@@ -6838,7 +6849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
         <v>52</v>
       </c>
@@ -6849,7 +6860,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>103</v>
       </c>
@@ -6857,7 +6868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>102</v>
       </c>
@@ -6868,7 +6879,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>29</v>
       </c>
@@ -6876,7 +6887,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
         <v>28</v>
       </c>
@@ -6890,7 +6901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>158</v>
       </c>
@@ -6898,7 +6909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>34</v>
       </c>
@@ -6909,7 +6920,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -6917,7 +6928,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>34</v>
       </c>
@@ -6931,7 +6942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>50</v>
       </c>
@@ -6945,7 +6956,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
@@ -6953,7 +6964,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
         <v>34</v>
       </c>
@@ -6964,7 +6975,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
         <v>38</v>
       </c>
@@ -6975,7 +6986,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>36</v>
       </c>
@@ -6986,7 +6997,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>42</v>
       </c>
@@ -6997,7 +7008,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
         <v>40</v>
       </c>
@@ -7008,7 +7019,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>32</v>
       </c>
@@ -7016,7 +7027,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>34</v>
       </c>
@@ -7027,7 +7038,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>38</v>
       </c>
@@ -7038,7 +7049,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>36</v>
       </c>
@@ -7049,7 +7060,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>151</v>
       </c>
@@ -7060,7 +7071,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>134</v>
       </c>
@@ -7071,7 +7082,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
         <v>42</v>
       </c>
@@ -7082,7 +7093,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
         <v>40</v>
       </c>
@@ -7093,7 +7104,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
         <v>72</v>
       </c>
@@ -7104,7 +7115,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
         <v>142</v>
       </c>
@@ -7115,7 +7126,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
         <v>140</v>
       </c>
@@ -7126,7 +7137,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
         <v>148</v>
       </c>
@@ -7137,7 +7148,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
         <v>74</v>
       </c>
@@ -7148,7 +7159,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
@@ -7159,7 +7170,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
         <v>138</v>
       </c>
@@ -7170,7 +7181,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>136</v>
       </c>
@@ -7181,7 +7192,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
         <v>91</v>
       </c>
@@ -7192,7 +7203,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
         <v>153</v>
       </c>
@@ -7203,7 +7214,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
         <v>132</v>
       </c>
@@ -7214,7 +7225,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>18</v>
       </c>
@@ -7222,7 +7233,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
         <v>17</v>
       </c>
@@ -7233,7 +7244,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>87</v>
       </c>
@@ -7241,7 +7252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
         <v>86</v>
       </c>
@@ -7252,7 +7263,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>26</v>
       </c>
@@ -7260,7 +7271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
         <v>23</v>
       </c>
@@ -7271,7 +7282,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>24</v>
       </c>
@@ -7279,7 +7290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>23</v>
       </c>
@@ -7290,7 +7301,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>125</v>
       </c>
@@ -7298,7 +7309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
         <v>124</v>
       </c>
@@ -7309,7 +7320,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>58</v>
       </c>
@@ -7317,7 +7328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
         <v>57</v>
       </c>
@@ -7328,7 +7339,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>44</v>
       </c>
@@ -7336,7 +7347,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
         <v>34</v>
       </c>
@@ -7347,7 +7358,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>46</v>
       </c>
@@ -7355,7 +7366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
         <v>34</v>
       </c>
@@ -7366,7 +7377,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>168</v>
       </c>
@@ -7374,7 +7385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
         <v>170</v>
       </c>
@@ -7385,7 +7396,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
         <v>167</v>
       </c>
@@ -7396,7 +7407,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>79</v>
       </c>
@@ -7404,7 +7415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
         <v>78</v>
       </c>
@@ -7415,7 +7426,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>163</v>
       </c>
@@ -7423,7 +7434,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
         <v>162</v>
       </c>
@@ -7434,7 +7445,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
         <v>165</v>
       </c>
@@ -7445,17 +7456,17 @@
         <v>189</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>184</v>
       </c>
@@ -7463,7 +7474,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
         <v>180</v>
       </c>
@@ -7474,7 +7485,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>185</v>
       </c>
@@ -7482,7 +7493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
         <v>182</v>
       </c>
@@ -7493,7 +7504,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>186</v>
       </c>
@@ -7501,7 +7512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
         <v>183</v>
       </c>
@@ -7512,7 +7523,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>187</v>
       </c>
@@ -7520,7 +7531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
         <v>181</v>
       </c>
@@ -7531,7 +7542,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>193</v>
       </c>
@@ -7539,7 +7550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>191</v>
       </c>
@@ -7550,7 +7561,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>194</v>
       </c>
@@ -7558,7 +7569,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
         <v>192</v>
       </c>
@@ -7569,7 +7580,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>175</v>
       </c>

--- a/BoMs/2025 March Order.xlsx
+++ b/BoMs/2025 March Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Navigator\BoMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6DA7B6-9251-4F41-B37E-15E51BA17615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B794A5F4-F137-4824-889C-0F5BC1E0F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{004A2F2D-A702-44F6-9609-5F0D31EAE440}"/>
   </bookViews>
@@ -4435,7 +4435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5729,16 +5729,16 @@
       <c r="A76" t="s">
         <v>172</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5746,16 +5746,16 @@
       <c r="A77" t="s">
         <v>172</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="6">
         <v>20</v>
       </c>
     </row>
@@ -5763,16 +5763,16 @@
       <c r="A78" t="s">
         <v>172</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="6">
         <v>4</v>
       </c>
     </row>
@@ -5780,16 +5780,16 @@
       <c r="A79" t="s">
         <v>172</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="6">
         <v>10</v>
       </c>
     </row>
@@ -5797,16 +5797,16 @@
       <c r="A80" t="s">
         <v>172</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5814,16 +5814,16 @@
       <c r="A81" t="s">
         <v>172</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5831,16 +5831,16 @@
       <c r="A82" t="s">
         <v>172</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5848,16 +5848,16 @@
       <c r="A83" t="s">
         <v>172</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5865,16 +5865,16 @@
       <c r="A84" t="s">
         <v>172</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="6">
         <v>18</v>
       </c>
     </row>
@@ -5882,16 +5882,16 @@
       <c r="A85" t="s">
         <v>172</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="6">
         <v>14</v>
       </c>
     </row>
@@ -5950,16 +5950,16 @@
       <c r="A89" t="s">
         <v>172</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="6">
         <v>1</v>
       </c>
     </row>
@@ -5967,16 +5967,16 @@
       <c r="A90" t="s">
         <v>172</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="6">
         <v>2</v>
       </c>
     </row>
@@ -5984,16 +5984,16 @@
       <c r="A91" t="s">
         <v>172</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="6">
         <v>8</v>
       </c>
     </row>
@@ -6273,16 +6273,16 @@
       <c r="A108" t="s">
         <v>172</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E108">
+      <c r="E108" s="6">
         <v>6</v>
       </c>
     </row>
@@ -6290,16 +6290,16 @@
       <c r="A109" t="s">
         <v>172</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E109">
+      <c r="E109" s="6">
         <v>10</v>
       </c>
     </row>
@@ -6307,16 +6307,16 @@
       <c r="A110" t="s">
         <v>172</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="6">
         <v>8</v>
       </c>
     </row>
@@ -6324,16 +6324,16 @@
       <c r="A111" t="s">
         <v>172</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="E111">
+      <c r="E111" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6341,16 +6341,16 @@
       <c r="A112" t="s">
         <v>172</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E112">
+      <c r="E112" s="6">
         <v>4</v>
       </c>
     </row>
@@ -6358,16 +6358,16 @@
       <c r="A113" t="s">
         <v>172</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E113">
+      <c r="E113" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6375,16 +6375,16 @@
       <c r="A114" t="s">
         <v>172</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E114">
+      <c r="E114" s="6">
         <v>6</v>
       </c>
     </row>
@@ -6392,16 +6392,16 @@
       <c r="A115" t="s">
         <v>172</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="E115">
+      <c r="E115" s="6">
         <v>2</v>
       </c>
     </row>
@@ -6409,16 +6409,16 @@
       <c r="A116" t="s">
         <v>172</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E116">
+      <c r="E116" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6426,16 +6426,16 @@
       <c r="A117" t="s">
         <v>172</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E117">
+      <c r="E117" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6443,16 +6443,16 @@
       <c r="A118" t="s">
         <v>172</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E118">
+      <c r="E118" s="6">
         <v>10</v>
       </c>
     </row>

--- a/BoMs/2025 March Order.xlsx
+++ b/BoMs/2025 March Order.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Navigator\BoMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B794A5F4-F137-4824-889C-0F5BC1E0F068}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC0617-8602-4617-97E7-77C9B2D92A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{004A2F2D-A702-44F6-9609-5F0D31EAE440}"/>
   </bookViews>
@@ -4435,7 +4435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,75 +4463,75 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -4548,7 +4548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -4565,160 +4565,160 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -4752,7 +4752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -4786,24 +4786,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -5725,7 +5725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>172</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>172</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>172</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>172</v>
       </c>
@@ -5793,7 +5793,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>172</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>172</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>172</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>172</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>172</v>
       </c>
@@ -5895,58 +5895,58 @@
         <v>14</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>172</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>172</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>172</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>172</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>172</v>
       </c>
@@ -5997,7 +5997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>172</v>
       </c>
@@ -6014,7 +6014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>172</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>172</v>
       </c>
@@ -6048,7 +6048,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>172</v>
       </c>
@@ -6065,7 +6065,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>172</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>172</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>172</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>172</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>172</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>172</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>172</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>172</v>
       </c>
@@ -6201,7 +6201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>172</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>172</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>172</v>
       </c>
@@ -6252,7 +6252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>172</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>172</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>172</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>172</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>172</v>
       </c>
@@ -6337,7 +6337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>172</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>172</v>
       </c>
@@ -6371,7 +6371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>172</v>
       </c>
@@ -6388,7 +6388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>172</v>
       </c>
@@ -6405,7 +6405,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>172</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>172</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>172</v>
       </c>
@@ -6456,75 +6456,75 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>172</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D119" t="str">
+      <c r="D119" s="6" t="str">
         <f>CONCATENATE(B119,", ",C119)</f>
         <v>Knob, Tiny</v>
       </c>
-      <c r="E119">
+      <c r="E119" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>172</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D120" t="str">
+      <c r="D120" s="6" t="str">
         <f t="shared" ref="D120:D124" si="3">CONCATENATE(B120,", ",C120)</f>
         <v>Knob, Small</v>
       </c>
-      <c r="E120">
+      <c r="E120" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>172</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="D121" t="str">
+      <c r="D121" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Knob, Medium</v>
       </c>
-      <c r="E121">
+      <c r="E121" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>172</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="D122" t="str">
+      <c r="D122" s="6" t="str">
         <f t="shared" si="3"/>
         <v>Knob, Huge</v>
       </c>
-      <c r="E122">
+      <c r="E122" s="6">
         <v>1</v>
       </c>
     </row>
@@ -6562,7 +6562,7 @@
   <autoFilter ref="A1:E124" xr:uid="{976F841D-3466-4246-9EE5-D610D84B918F}">
     <filterColumn colId="0">
       <filters>
-        <filter val="VCF"/>
+        <filter val="VCA"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/BoMs/2025 March Order.xlsx
+++ b/BoMs/2025 March Order.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Engineering\GitHub\DMH-Navigator\BoMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69CC0617-8602-4617-97E7-77C9B2D92A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD104A2-B9A3-43F5-B80D-39B0C1856FD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{004A2F2D-A702-44F6-9609-5F0D31EAE440}"/>
   </bookViews>
@@ -4435,7 +4435,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B132" sqref="B132"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4463,7 +4463,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -4497,7 +4497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -4531,41 +4531,41 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>0</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
@@ -4599,7 +4599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>0</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>0</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>0</v>
       </c>
@@ -4650,7 +4650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>0</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>0</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>0</v>
       </c>
@@ -4718,75 +4718,75 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>0</v>
       </c>
@@ -4803,128 +4803,128 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="D22" t="str">
+      <c r="D22" s="6" t="str">
         <f>CONCATENATE(B22,", ",C22)</f>
         <v>Knob, Tiny</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D23" s="6" t="str">
         <f t="shared" ref="D23" si="0">CONCATENATE(B23,", ",C23)</f>
         <v>Knob, Small</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>80</v>
       </c>
@@ -4941,7 +4941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -4958,262 +4958,262 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="6">
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="6">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="6">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="6">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="6">
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -6562,7 +6562,7 @@
   <autoFilter ref="A1:E124" xr:uid="{976F841D-3466-4246-9EE5-D610D84B918F}">
     <filterColumn colId="0">
       <filters>
-        <filter val="VCA"/>
+        <filter val="VCM"/>
       </filters>
     </filterColumn>
   </autoFilter>
